--- a/problems/week_assignments/usual.xlsx
+++ b/problems/week_assignments/usual.xlsx
@@ -628,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
